--- a/微语产品报价单.xlsx
+++ b/微语产品报价单.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="26760" windowHeight="13840"/>
   </bookViews>
   <sheets>
-    <sheet name="微语 产品报价单" sheetId="2" r:id="rId1"/>
+    <sheet name="微语产品报价单" sheetId="2" r:id="rId1"/>
     <sheet name="服务器端" sheetId="8" r:id="rId2"/>
     <sheet name="管理后台" sheetId="3" r:id="rId3"/>
     <sheet name="客服端客户端" sheetId="4" r:id="rId4"/>
@@ -118,7 +118,7 @@
     <t>首年技术支持免费</t>
   </si>
   <si>
-    <t>次年技术支持合同10%</t>
+    <t>次年技术支持合同15%</t>
   </si>
   <si>
     <t xml:space="preserve"> 说明： 
@@ -1477,7 +1477,7 @@
   </sheetPr>
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
